--- a/uploads/process-files/2026/01/2.xlsx
+++ b/uploads/process-files/2026/01/2.xlsx
@@ -1394,6 +1394,158 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="19050"/>
+          <a:ext cx="142875" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="19050"/>
+          <a:ext cx="314325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="19050"/>
+          <a:ext cx="257175" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="19050"/>
+          <a:ext cx="295275" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
